--- a/Summary.xlsx
+++ b/Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PDF\AICT project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B243ABC-6F3E-4B82-B33B-2F1A8325CCB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6325F67-F1A1-4516-A96D-00F4E64F262C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D090B324-A40D-428C-97E9-CA88BC4681A1}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Metric</t>
   </si>
@@ -71,6 +71,9 @@
   <si>
     <t>Number of High Stock Items</t>
   </si>
+  <si>
+    <t>Total Price</t>
+  </si>
 </sst>
 </file>
 
@@ -79,7 +82,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -90,6 +93,13 @@
     <font>
       <b/>
       <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -111,7 +121,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.34998626667073579"/>
+        <fgColor theme="1" tint="0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -125,12 +135,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -139,15 +150,27 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="44" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF8B0ED8"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -3260,10 +3283,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{369AD029-82EA-48D1-AC0D-3A56A4E622D5}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3272,29 +3295,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="4"/>
+      <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
       <c r="D3" s="2">
         <f>SUM([1]Sheet1!D4:D27)</f>
         <v>19157</v>
@@ -3302,11 +3325,11 @@
       <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
       <c r="D4" s="2">
         <f>AVERAGE([1]Sheet1!B4:B27)</f>
         <v>19.791666666666668</v>
@@ -3314,11 +3337,11 @@
       <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
       <c r="D5" s="3">
         <f>COUNTIF([1]Sheet1!E4:E27, "Low")</f>
         <v>6</v>
@@ -3326,11 +3349,11 @@
       <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
       <c r="D6" s="3">
         <f>COUNTIF([1]Sheet1!F4:F27,"Breakfast")</f>
         <v>2</v>
@@ -3338,11 +3361,11 @@
       <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
       <c r="D7" s="3">
         <f>COUNTIF([1]Sheet1!F4:F27,"Soup")</f>
         <v>2</v>
@@ -3350,11 +3373,11 @@
       <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
       <c r="D8" s="3">
         <f>COUNTIF([1]Sheet1!F4:F27,"Dessert")</f>
         <v>2</v>
@@ -3362,11 +3385,11 @@
       <c r="E8" s="3"/>
     </row>
     <row r="9" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
       <c r="D9" s="3">
         <f>COUNTIF([1]Sheet1!F4:F27,"Starter")</f>
         <v>4</v>
@@ -3374,36 +3397,36 @@
       <c r="E9" s="3"/>
     </row>
     <row r="10" spans="1:5" ht="0.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
     </row>
     <row r="11" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
       <c r="D11" s="3">
         <v>900</v>
       </c>
       <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:5" ht="0.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
       <c r="D13" s="3">
         <f>COUNTIF([1]Sheet1!E4:E27,"High")</f>
         <v>18</v>
@@ -3411,20 +3434,38 @@
       <c r="E13" s="3"/>
     </row>
     <row r="14" spans="1:5" ht="0.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
     </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="4">
+        <v>475</v>
+      </c>
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+    </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:E5"/>
+  <mergeCells count="22">
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="D7:E7"/>
+    <mergeCell ref="A15:C16"/>
+    <mergeCell ref="D15:E16"/>
     <mergeCell ref="A1:C2"/>
     <mergeCell ref="D1:E2"/>
     <mergeCell ref="A13:C14"/>
@@ -3439,6 +3480,8 @@
     <mergeCell ref="D9:E10"/>
     <mergeCell ref="A11:C12"/>
     <mergeCell ref="D11:E12"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
